--- a/target/classes/e6dataTestInput.xlsx
+++ b/target/classes/e6dataTestInput.xlsx
@@ -35,9 +35,6 @@
     <t>Total Records</t>
   </si>
   <si>
-    <t>//div[text()='test (Glue)']</t>
-  </si>
-  <si>
     <t>Catalog</t>
   </si>
   <si>
@@ -75,6 +72,9 @@
   </si>
   <si>
     <t>Cluster</t>
+  </si>
+  <si>
+    <t>test (Glue)</t>
   </si>
 </sst>
 </file>
@@ -530,7 +530,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -545,18 +545,18 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C2">
         <v>10</v>
@@ -579,37 +579,37 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
